--- a/聚丙烯(PP)/eta/1.聚丙烯_数据上传.xlsx
+++ b/聚丙烯(PP)/eta/1.聚丙烯_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23520" windowHeight="10740" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>

--- a/聚丙烯(PP)/eta/1.聚丙烯_数据上传.xlsx
+++ b/聚丙烯(PP)/eta/1.聚丙烯_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23520" windowHeight="10740" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1138,7 +1138,7 @@
         <v>45744</v>
       </c>
       <c r="F3" t="n">
-        <v>-469.79</v>
+        <v>-344.87</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.1780682264460845</v>
+        <v>0.1785446629542591</v>
       </c>
     </row>
     <row r="4">
@@ -1177,7 +1177,7 @@
         <v>45744</v>
       </c>
       <c r="F4" t="n">
-        <v>647.26</v>
+        <v>-379.35</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.1061430781616598</v>
+        <v>0.1041935025294851</v>
       </c>
     </row>
     <row r="5">
@@ -1216,7 +1216,7 @@
         <v>45744</v>
       </c>
       <c r="F5" t="n">
-        <v>6551.8</v>
+        <v>7164.2</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.01719723052404903</v>
+        <v>0.01710282910296316</v>
       </c>
     </row>
   </sheetData>
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-469.79</v>
+        <v>-344.87</v>
       </c>
       <c r="E3" s="1" t="n"/>
       <c r="F3" t="inlineStr">
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>647.26</v>
+        <v>-379.35</v>
       </c>
       <c r="J3" s="1" t="n"/>
       <c r="K3" t="inlineStr">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>6551.8</v>
+        <v>7164.2</v>
       </c>
       <c r="O3" s="1" t="n"/>
     </row>
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-411.04</v>
+        <v>-413.35</v>
       </c>
       <c r="C4" t="n">
         <v>-280.34</v>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.317973919813157</v>
+        <v>0.3217854118785534</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>353.8</v>
+        <v>343.86</v>
       </c>
       <c r="H4" t="n">
         <v>190.89</v>
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.4604578858111928</v>
+        <v>0.4448612807537952</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6637.2</v>
+        <v>6641.9</v>
       </c>
       <c r="M4" t="n">
         <v>7083.5</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.06724221057072262</v>
+        <v>0.06648699920203562</v>
       </c>
       <c r="Q4" s="8" t="n"/>
       <c r="R4" s="8" t="n"/>
@@ -2845,3819 +2845,3819 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-390.8075866699219</v>
+        <v>-295.4012756347656</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>909.5231249999999</v>
+        <v>-266.0204750000001</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>6544.575411155999</v>
+        <v>7232.712365892</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-483.995849609375</v>
+        <v>-279.3541259765625</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>816.3231249999999</v>
+        <v>-252.4571</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6446.647657944</v>
+        <v>7245.282516205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-480.9057006835938</v>
+        <v>-308.591796875</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>908.116275</v>
+        <v>-409.3362500000004</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6405.237499524</v>
+        <v>7286.886809089998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-477.9636535644531</v>
+        <v>-275.6761779785156</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>839.3795</v>
+        <v>-396.9039</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6444.184156562001</v>
+        <v>7324.077270832</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-498.2524108886719</v>
+        <v>-272.3268127441406</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>965.2770000000003</v>
+        <v>-413.4842250000004</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>6350.712062755</v>
+        <v>7340.974445159999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-495.3103637695312</v>
+        <v>-322.3517150878906</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>998.003825</v>
+        <v>-364.6572500000001</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>6340.214759989999</v>
+        <v>7215.393678288</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-462.8323669433594</v>
+        <v>-375.0468444824219</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>970.075525</v>
+        <v>-363.6514999999999</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>6409.55952679</v>
+        <v>7062.170305239999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-470.5195007324219</v>
+        <v>-367.33154296875</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>857.6006499999999</v>
+        <v>-360.337425</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>6445.7796082</v>
+        <v>7074.363216023999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-473.4615478515625</v>
+        <v>-375.0468444824219</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>638.2283500000003</v>
+        <v>-365.1134750000001</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>6540.225053896001</v>
+        <v>7112.469558849999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-475.5575866699219</v>
+        <v>-367.7756652832031</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>476.7730749999999</v>
+        <v>-360.3500999999999</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>6617.86112812</v>
+        <v>7109.627976671999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-471.0416259765625</v>
+        <v>-369.6183776855469</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>501.3534</v>
+        <v>-359.2261500000005</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>6627.03176064</v>
+        <v>7091.417069129998</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-480.428466796875</v>
+        <v>-367.33154296875</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>315.54175</v>
+        <v>-409.0699250000001</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>6701.533073095</v>
+        <v>7114.596517311998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-454.7920227050781</v>
+        <v>-362.0087585449219</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>152.5469749999999</v>
+        <v>-393.5361000000003</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>6817.727455159999</v>
+        <v>7135.275616173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-462.8660888671875</v>
+        <v>-375.0468444824219</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>144.9343</v>
+        <v>-397.7642500000002</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>6818.930108135999</v>
+        <v>7110.466370729</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-468.1023254394531</v>
+        <v>-367.4562683105469</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>215.2696749999999</v>
+        <v>-452.1545249999999</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>6766.827611943999</v>
+        <v>7139.425558925999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-473.759765625</v>
+        <v>-344.1671447753906</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>233.9359249999999</v>
+        <v>-418.6207000000001</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>6704.868766483999</v>
+        <v>7166.383127784999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-473.759765625</v>
+        <v>-438.2411499023438</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>272.9219249999998</v>
+        <v>-466.3248249999999</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6663.911475056001</v>
+        <v>7030.280566022001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-473.759765625</v>
+        <v>-409.79736328125</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>258.7895</v>
+        <v>-418.4318250000004</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>6689.622682703</v>
+        <v>7006.638827655999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-474.6445007324219</v>
+        <v>-407.1195678710938</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>229.7246499999995</v>
+        <v>-386.4923249999998</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6732.315629904999</v>
+        <v>6959.698925690998</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-496.1492919921875</v>
+        <v>-407.1195678710938</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>267.6782999999999</v>
+        <v>-309.4949750000002</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>6675.5162165</v>
+        <v>6918.303798396998</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-496.1493</v>
+          <t>2025/10/28</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-442.5319519042969</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>188.6416</v>
+        <v>224.6365</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6662</v>
+        <v>6699</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-471.0023</v>
+        <v>-454.7892</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>198.6684</v>
+        <v>188.6416</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6691</v>
+        <v>6662</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-543.7196</v>
+        <v>-496.1493</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>241.5474</v>
+        <v>198.6684</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6619</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-468.1672</v>
+        <v>-471.0023</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>404.8944</v>
+        <v>241.5474</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6583</v>
+        <v>6619</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-469.6861</v>
+        <v>-543.7196</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>435.0791</v>
+        <v>404.8944</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>6565</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-495.6583</v>
+        <v>-468.1672</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>393.499</v>
+        <v>435.0791</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6551</v>
+        <v>6565</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-421.2149</v>
+        <v>-469.6861</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>482.5748</v>
+        <v>393.499</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6618</v>
+        <v>6551</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-464.0815</v>
+        <v>-495.6583</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>351.9136</v>
+        <v>482.5748</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6595</v>
+        <v>6618</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-452.7867</v>
+        <v>-421.2149</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>371.0123</v>
+        <v>351.9136</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6602</v>
+        <v>6595</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-394.5693</v>
+        <v>-464.0815</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>381.9182</v>
+        <v>371.0123</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6693</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-337.8169</v>
+        <v>-452.7867</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>503.0533</v>
+        <v>381.9182</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>6722</v>
+        <v>6693</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-388.084</v>
+        <v>-394.5693</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>292.8049</v>
+        <v>503.0533</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6745</v>
+        <v>6722</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025/10/08</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-412.1868</v>
+        <v>-337.8169</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>269.4402</v>
+        <v>292.8049</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>6852</v>
+        <v>6745</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025/10/07</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-399.2783</v>
+        <v>-388.084</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>274.8263</v>
+        <v>269.4402</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6903</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025/10/06</t>
+          <t>2025/10/08</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-399.5323</v>
+        <v>-412.1868</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>106.5369</v>
+        <v>274.8263</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>6893</v>
+        <v>6903</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/10/03</t>
+          <t>2025/10/07</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-254.654</v>
+        <v>-399.2783</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>122.1597</v>
+        <v>106.5369</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>6898</v>
+        <v>6893</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025/10/02</t>
+          <t>2025/10/06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-252.2191</v>
+        <v>-399.5323</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>145.9248</v>
+        <v>122.1597</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>6877</v>
+        <v>6898</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025/10/01</t>
+          <t>2025/10/03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-277.9638</v>
+        <v>-254.654</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025/09/23</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>205.9545</v>
+        <v>145.9248</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025/09/23</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>6842</v>
+        <v>6877</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/02</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-367.0637</v>
+        <v>-252.2191</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/23</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>323.2728</v>
+        <v>205.9545</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/23</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6873</v>
+        <v>6842</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/10/01</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-325.0965</v>
+        <v>-277.9638</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/22</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>355.3624</v>
+        <v>323.2728</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/22</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>6914</v>
+        <v>6873</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-395.3486</v>
+        <v>-367.0637</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>307.6236</v>
+        <v>355.3624</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>6926</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-378.2626</v>
+        <v>-325.0965</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025/09/17</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>340.44</v>
+        <v>307.6236</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025/09/17</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6982</v>
+        <v>6926</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-374.4951</v>
+        <v>-395.3486</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>285.0432</v>
+        <v>340.44</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>6970</v>
+        <v>6982</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025/09/23</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-371.0442</v>
+        <v>-378.2626</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>353.4097</v>
+        <v>285.0432</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>6966</v>
+        <v>6970</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-317.6208</v>
+        <v>-374.4951</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>346.216</v>
+        <v>353.4097</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>6913</v>
+        <v>6966</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/23</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-284.5557</v>
+        <v>-371.0442</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>412.7579</v>
+        <v>346.216</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>6939</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/22</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-285.9585</v>
+        <v>-317.6208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>325.4693</v>
+        <v>412.7579</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>6948</v>
+        <v>6939</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/09/17</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-220.9507</v>
+        <v>-284.5557</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>408.5739</v>
+        <v>325.4693</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>6949</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-248.0582</v>
+        <v>-285.9585</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>447.2322</v>
+        <v>408.5739</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>6968</v>
+        <v>6949</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-241.6356</v>
+        <v>-220.9507</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/08</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>479.357</v>
+        <v>447.2322</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/08</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>6961</v>
+        <v>6968</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-281.9962</v>
+        <v>-248.0582</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>369.8107</v>
+        <v>479.357</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>6939</v>
+        <v>6961</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-233.0132</v>
+        <v>-241.6356</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>343.4378</v>
+        <v>369.8107</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>6954</v>
+        <v>6939</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-246.6519</v>
+        <v>-281.9962</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>211.0232</v>
+        <v>343.4378</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>6943</v>
+        <v>6954</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-211.3466</v>
+        <v>-233.0132</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>315.8445</v>
+        <v>211.0232</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>6974</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-187.8085</v>
+        <v>-246.6519</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>348.436</v>
+        <v>315.8445</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>7020</v>
+        <v>6974</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-179.5833</v>
+        <v>-211.3466</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>380.4584</v>
+        <v>348.436</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>7021</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/08</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-222.3081</v>
+        <v>-187.8085</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/08/27</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>439.8133</v>
+        <v>380.4584</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/08/27</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>7046</v>
+        <v>7021</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-227.7079</v>
+        <v>-179.5833</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>360.761</v>
+        <v>439.8133</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>7074</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-269.8892</v>
+        <v>-222.3081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>382.4656</v>
+        <v>360.761</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>7038</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/09/01</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-258.6333</v>
+        <v>-227.7079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>403.7721</v>
+        <v>382.4656</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>7048</v>
+        <v>7038</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-243.5952</v>
+        <v>-269.8892</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>450.868</v>
+        <v>403.7721</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>7056</v>
+        <v>7048</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/09/01</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-195.8836</v>
+        <v>-258.6333</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>492.6767</v>
+        <v>450.868</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>7016</v>
+        <v>7056</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-186.2976</v>
+        <v>-243.5952</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025/08/18</t>
+          <t>2025/08/19</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>489.9345</v>
+        <v>492.6767</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025/08/18</t>
+          <t>2025/08/19</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>7048</v>
+        <v>7016</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-153.7688</v>
+        <v>-195.8836</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>546.6032</v>
+        <v>489.9345</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>7084</v>
+        <v>7048</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/08/27</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-163.0732</v>
+        <v>-186.2976</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>494.3047</v>
+        <v>546.6032</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>7085</v>
+        <v>7084</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-188.6801</v>
+        <v>-153.7688</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>599.7316</v>
+        <v>494.3047</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>7107</v>
+        <v>7085</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-181.5183</v>
+        <v>-163.0732</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>551.6826</v>
+        <v>599.7316</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>7091</v>
+        <v>7107</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-165.6382</v>
+        <v>-188.6801</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>512.5644</v>
+        <v>551.6826</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>7095</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-164.8004</v>
+        <v>-181.5183</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/11</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>509.8636</v>
+        <v>512.5644</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/11</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>7062</v>
+        <v>7095</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025/08/18</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-139.2532</v>
+        <v>-165.6382</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>518.9363</v>
+        <v>509.8636</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>7075</v>
+        <v>7062</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/19</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-55.2706</v>
+        <v>-164.8004</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>476.9161</v>
+        <v>518.9363</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>7078</v>
+        <v>7075</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-69.03700000000001</v>
+        <v>-139.2532</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>444.216</v>
+        <v>476.9161</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>7095</v>
+        <v>7078</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-21.6521</v>
+        <v>-55.2706</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>347.663</v>
+        <v>444.216</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>7074</v>
+        <v>7095</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-53.1177</v>
+        <v>-69.03700000000001</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>302.3584</v>
+        <v>347.663</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>7098</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-47.3631</v>
+        <v>-21.6521</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>99.7522</v>
+        <v>302.3584</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>7118</v>
+        <v>7098</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-81.7675</v>
+        <v>-53.1177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>63.3384</v>
+        <v>99.7522</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>7145</v>
+        <v>7118</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/11</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-49.7707</v>
+        <v>-47.3631</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>125.7071</v>
+        <v>63.3384</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>7160</v>
+        <v>7145</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-69.84220000000001</v>
+        <v>-81.7675</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>271.88</v>
+        <v>125.7071</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>7130</v>
+        <v>7160</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-58.645</v>
+        <v>-49.7707</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>514.167</v>
+        <v>271.88</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>7221</v>
+        <v>7130</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-103.009</v>
+        <v>-69.84220000000001</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>405.4949</v>
+        <v>514.167</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>7181</v>
+        <v>7221</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-98.5633</v>
+        <v>-58.645</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>368.9774</v>
+        <v>405.4949</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>7096</v>
+        <v>7181</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-198.7425</v>
+        <v>-103.009</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>437.54</v>
+        <v>368.9774</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>7168</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-189.308</v>
+        <v>-98.5633</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>325.0176</v>
+        <v>437.54</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>7091</v>
+        <v>7168</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-178.1528</v>
+        <v>-198.7425</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>238.5284</v>
+        <v>325.0176</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>7013</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-142.6987</v>
+        <v>-189.308</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>217.4515</v>
+        <v>238.5284</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>7020</v>
+        <v>7013</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>6.4285</v>
+        <v>-178.1528</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>274.666</v>
+        <v>217.4515</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>7013</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-49.0791</v>
+        <v>-142.6987</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>267.7313</v>
+        <v>274.666</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>7015</v>
+        <v>7013</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-121.6899</v>
+        <v>6.4285</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>300.4069</v>
+        <v>267.7313</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>7067</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-51.6641</v>
+        <v>-49.0791</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>193.3635</v>
+        <v>300.4069</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>7069</v>
+        <v>7067</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-148.0908</v>
+        <v>-121.6899</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2025/07/10</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>362.3615</v>
+        <v>193.3635</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025/07/10</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>7112</v>
+        <v>7069</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-222.3863</v>
+        <v>-51.6641</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>230.403</v>
+        <v>362.3615</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>7078</v>
+        <v>7112</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-229.8063</v>
+        <v>-148.0908</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>208.9707</v>
+        <v>230.403</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>7045</v>
+        <v>7078</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-156.4961</v>
+        <v>-222.3863</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>254.72</v>
+        <v>208.9707</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>7057</v>
+        <v>7045</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-158.0656</v>
+        <v>-229.8063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>353.705</v>
+        <v>254.72</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>7078</v>
+        <v>7057</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-121.488</v>
+        <v>-156.4961</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>325.5937</v>
+        <v>353.705</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>7074</v>
+        <v>7078</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-134.8838</v>
+        <v>-158.0656</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>299.7995</v>
+        <v>325.5937</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>7072</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025/07/10</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-57.5824</v>
+        <v>-121.488</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>410.2564</v>
+        <v>299.7995</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>7044</v>
+        <v>7072</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-120.2807</v>
+        <v>-134.8838</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>406.6808</v>
+        <v>410.2564</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>7070</v>
+        <v>7044</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-147.0782</v>
+        <v>-57.5824</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>460.2301</v>
+        <v>406.6808</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>7103</v>
+        <v>7070</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-114.0104</v>
+        <v>-120.2807</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>428.1835</v>
+        <v>460.2301</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>7108</v>
+        <v>7103</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-84.2855</v>
+        <v>-147.0782</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>416.1148</v>
+        <v>428.1835</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>7084</v>
+        <v>7108</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-79.23</v>
+        <v>-114.0104</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>391.5248</v>
+        <v>416.1148</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>7074</v>
+        <v>7084</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-87.953</v>
+        <v>-84.2855</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>366.8543</v>
+        <v>391.5248</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>7262</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-75.0457</v>
+        <v>-79.23</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/06/23</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-143.7331</v>
+        <v>366.8543</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/06/23</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>7242</v>
+        <v>7262</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-105.9352</v>
+        <v>-87.953</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-85.7503</v>
+        <v>-143.7331</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>7214</v>
+        <v>7242</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-47.5084</v>
+        <v>-75.0457</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-255.4069</v>
+        <v>-85.7503</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>7125</v>
+        <v>7214</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-72.2388</v>
+        <v>-105.9352</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>95.22190000000001</v>
+        <v>-255.4069</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>7133</v>
+        <v>7125</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-97.9644</v>
+        <v>-47.5084</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/16</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-143.0191</v>
+        <v>95.22190000000001</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/16</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>7089</v>
+        <v>7133</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-119.1402</v>
+        <v>-72.2388</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>89.60420000000001</v>
+        <v>-143.0191</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>6969</v>
+        <v>7089</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-35.5307</v>
+        <v>-97.9644</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>47.1941</v>
+        <v>89.60420000000001</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>6960</v>
+        <v>6969</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-213.9618</v>
+        <v>-119.1402</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>335.0611</v>
+        <v>47.1941</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>6941</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/06/23</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-334.9032</v>
+        <v>-35.5307</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>285.8112</v>
+        <v>335.0611</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>6932</v>
+        <v>6941</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-201.3396</v>
+        <v>-213.9618</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/09</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>315.0042</v>
+        <v>285.8112</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/09</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>6925</v>
+        <v>6932</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/19</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-340.268</v>
+        <v>-334.9032</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>400.0536</v>
+        <v>315.0042</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>6911</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-99.8702</v>
+        <v>-201.3396</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>463.647</v>
+        <v>400.0536</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>6948</v>
+        <v>6911</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-255.1941</v>
+        <v>-340.268</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/06/04</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>349.1196</v>
+        <v>463.647</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/06/04</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>6884</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/16</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-233.2779</v>
+        <v>-99.8702</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>467.9598</v>
+        <v>349.1196</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>6875</v>
+        <v>6884</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-303.0018</v>
+        <v>-255.1941</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>489.8337</v>
+        <v>467.9598</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>6918</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-188.7731</v>
+        <v>-233.2779</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>402.9052</v>
+        <v>489.8337</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>6893</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-206.8071</v>
+        <v>-303.0018</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>458.1799</v>
+        <v>402.9052</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>6896</v>
+        <v>6893</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-207.3667</v>
+        <v>-188.7731</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>452.4341</v>
+        <v>458.1799</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>6948</v>
+        <v>6896</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/09</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-196.455</v>
+        <v>-206.8071</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>580.5077</v>
+        <v>452.4341</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>7001</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-157.7367</v>
+        <v>-207.3667</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>590.4442</v>
+        <v>580.5077</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>7054</v>
+        <v>7001</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-242.9992</v>
+        <v>-196.455</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>508.4213</v>
+        <v>590.4442</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>7047</v>
+        <v>7054</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025/06/02</t>
+          <t>2025/06/04</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-221.4192</v>
+        <v>-157.7367</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>549.369</v>
+        <v>508.4213</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>7078</v>
+        <v>7047</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-248.5347</v>
+        <v>-242.9992</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>573.8933</v>
+        <v>549.369</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>7093</v>
+        <v>7078</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/06/02</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-220.3201</v>
+        <v>-221.4192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>692.6507</v>
+        <v>573.8933</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>7161</v>
+        <v>7093</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-261.4003</v>
+        <v>-248.5347</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>634.134</v>
+        <v>692.6507</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>7193</v>
+        <v>7161</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-244.6577</v>
+        <v>-220.3201</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>457.0988</v>
+        <v>634.134</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>7074</v>
+        <v>7193</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025/05/26</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-213.3938</v>
+        <v>-261.4003</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>526.9638</v>
+        <v>457.0988</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>7030</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-216.7489</v>
+        <v>-244.6577</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>544.1966</v>
+        <v>526.9638</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>6967</v>
+        <v>7030</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/26</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-135.0113</v>
+        <v>-213.3938</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>620.0579</v>
+        <v>544.1966</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>6985</v>
+        <v>6967</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-99.2242</v>
+        <v>-216.7489</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>829.4239</v>
+        <v>620.0579</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>7029</v>
+        <v>6985</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-136.8621</v>
+        <v>-135.0113</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>714.5136</v>
+        <v>829.4239</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>6995</v>
+        <v>7029</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-100.7918</v>
+        <v>-99.2242</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>680.13</v>
+        <v>714.5136</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>7041</v>
+        <v>6995</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-86.998</v>
+        <v>-136.8621</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>661.9527</v>
+        <v>680.13</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>7092</v>
+        <v>7041</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>20.0535</v>
+        <v>-100.7918</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>561.7015</v>
+        <v>661.9527</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>7112</v>
+        <v>7092</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>20.0665</v>
+        <v>-86.998</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>451.6813</v>
+        <v>561.7015</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>7097</v>
+        <v>7112</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-120.8754</v>
+        <v>20.0535</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>474.7447</v>
+        <v>451.6813</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>7092</v>
+        <v>7097</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-132.4642</v>
+        <v>20.0665</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>545.1362</v>
+        <v>474.7447</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>7137</v>
+        <v>7092</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-159.1287</v>
+        <v>-120.8754</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>359.6545</v>
+        <v>545.1362</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>7073</v>
+        <v>7137</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-121.3118</v>
+        <v>-132.4642</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>500.0848</v>
+        <v>359.6545</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>7112</v>
+        <v>7073</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-25.591</v>
+        <v>-159.1287</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>382.6184</v>
+        <v>500.0848</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>7099</v>
+        <v>7112</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-89.2878</v>
+        <v>-121.3118</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>510.8441</v>
+        <v>382.6184</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>7098</v>
+        <v>7099</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025/05/05</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-43.077</v>
+        <v>-25.591</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>629.2146</v>
+        <v>510.8441</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>7124</v>
+        <v>7098</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025/05/02</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-30.245</v>
+        <v>-89.2878</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>695.4479</v>
+        <v>629.2146</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>7189</v>
+        <v>7124</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025/05/01</t>
+          <t>2025/05/05</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-32.0819</v>
+        <v>-43.077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>714.1248000000001</v>
+        <v>695.4479</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -6667,387 +6667,387 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/02</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-161.7157</v>
+        <v>-30.245</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>891.9895</v>
+        <v>714.1248000000001</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>7279</v>
+        <v>7189</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/05/01</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-86.2454</v>
+        <v>-32.0819</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>636.8668</v>
+        <v>891.9895</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>7194</v>
+        <v>7279</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-101.1408</v>
+        <v>-161.7157</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>948.5886</v>
+        <v>636.8668</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>7200</v>
+        <v>7194</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-148.7293</v>
+        <v>-86.2454</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>746.6956</v>
+        <v>948.5886</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>7197</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-145.1758</v>
+        <v>-101.1408</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>501.2095</v>
+        <v>746.6956</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>7348</v>
+        <v>7197</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-98.68389999999999</v>
+        <v>-148.7293</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>262.6797</v>
+        <v>501.2095</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>7365</v>
+        <v>7348</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-222.7094</v>
+        <v>-145.1758</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>166.9727</v>
+        <v>262.6797</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>7352</v>
+        <v>7365</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-123.7377</v>
+        <v>-98.68389999999999</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>110.4305</v>
+        <v>166.9727</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>7313</v>
+        <v>7352</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-189.5028</v>
+        <v>-222.7094</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>239.2038</v>
+        <v>110.4305</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>7339</v>
+        <v>7313</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-149.5594</v>
+        <v>-123.7377</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>196.8867</v>
+        <v>239.2038</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>7347</v>
+        <v>7339</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-51.1866</v>
+        <v>-189.5028</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>182.2982</v>
+        <v>196.8867</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>7328</v>
+        <v>7347</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>16.5099</v>
+        <v>-149.5594</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>226.8414</v>
+        <v>182.2982</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>7314</v>
+        <v>7328</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>31.2849</v>
+        <v>-51.1866</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>259.8099</v>
+        <v>226.8414</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>7336</v>
+        <v>7314</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>148.1811</v>
+        <v>16.5099</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>247.2816</v>
+        <v>259.8099</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>7254</v>
+        <v>7336</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>14.0198</v>
+        <v>31.2849</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>236.6835</v>
+        <v>247.2816</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="H164" t="n">
@@ -7057,2103 +7057,2103 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>107.2306</v>
+        <v>148.1811</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>324.3698</v>
+        <v>236.6835</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>7234</v>
+        <v>7254</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>38.4928</v>
+        <v>14.0198</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>387.0543</v>
+        <v>324.3698</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>7267</v>
+        <v>7234</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025/04/04</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>136.5534</v>
+        <v>107.2306</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>367.9024</v>
+        <v>387.0543</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>7282</v>
+        <v>7267</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>69.55970000000001</v>
+        <v>38.4928</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>393.705</v>
+        <v>367.9024</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>7291</v>
+        <v>7282</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/04</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>31.0065</v>
+        <v>136.5534</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>395.3515</v>
+        <v>393.705</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>7255</v>
+        <v>7291</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-44.7029</v>
+        <v>69.55970000000001</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>337.7605</v>
+        <v>395.3515</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>7251</v>
+        <v>7255</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-88.56359999999999</v>
+        <v>31.0065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>465.3277</v>
+        <v>337.7605</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>7309</v>
+        <v>7251</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-74.89879999999999</v>
+        <v>-44.7029</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>532.471</v>
+        <v>465.3277</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>7318</v>
+        <v>7309</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-74.78189999999999</v>
+        <v>-88.56359999999999</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>438.985</v>
+        <v>532.471</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>7319</v>
+        <v>7318</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-87.9071</v>
+        <v>-74.89879999999999</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>519.9127</v>
+        <v>438.985</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>7323</v>
+        <v>7319</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-79.4572</v>
+        <v>-74.78189999999999</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>506.6764</v>
+        <v>519.9127</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>7307</v>
+        <v>7323</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-48.4397</v>
+        <v>-87.9071</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>410.219</v>
+        <v>506.6764</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>7343</v>
+        <v>7307</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-103.4021</v>
+        <v>-79.4572</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>427.1963</v>
+        <v>410.219</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="H177" t="n">
-        <v>7387</v>
+        <v>7343</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-110.0982</v>
+        <v>-48.4397</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>285.5468</v>
+        <v>427.1963</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>7368</v>
+        <v>7387</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-86.7946</v>
+        <v>-103.4021</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>234.2736</v>
+        <v>285.5468</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>7370</v>
+        <v>7368</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-47.0343</v>
+        <v>-110.0982</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>263.8396</v>
+        <v>234.2736</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>7320</v>
+        <v>7370</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-22.2889</v>
+        <v>-86.7946</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>276.6618</v>
+        <v>263.8396</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>7353</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-10.631</v>
+        <v>-47.0343</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>155.419</v>
+        <v>276.6618</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>7366</v>
+        <v>7353</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-29.9576</v>
+        <v>-22.2889</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>218.519</v>
+        <v>155.419</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>7378</v>
+        <v>7366</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-42.1881</v>
+        <v>-10.631</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>74.46429999999999</v>
+        <v>218.519</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="H184" t="n">
-        <v>7410</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>33.1901</v>
+        <v>-29.9576</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>115.1744</v>
+        <v>74.46429999999999</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>7414</v>
+        <v>7410</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>66.19110000000001</v>
+        <v>-42.1881</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>140.375</v>
+        <v>115.1744</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>7412</v>
+        <v>7414</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>27.8206</v>
+        <v>33.1901</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>205.9576</v>
+        <v>140.375</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>7395</v>
+        <v>7412</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>70.70399999999999</v>
+        <v>66.19110000000001</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>130.7573</v>
+        <v>205.9576</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>7371</v>
+        <v>7395</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>63.3206</v>
+        <v>27.8206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>233.5123</v>
+        <v>130.7573</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="H189" t="n">
-        <v>7445</v>
+        <v>7371</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>47.3416</v>
+        <v>70.70399999999999</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>79.3836</v>
+        <v>233.5123</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="H190" t="n">
-        <v>7430</v>
+        <v>7445</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>85.2921</v>
+        <v>63.3206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>113.0096</v>
+        <v>79.3836</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="H191" t="n">
-        <v>7412</v>
+        <v>7430</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>15.8292</v>
+        <v>47.3416</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>208.8373</v>
+        <v>113.0096</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>7401</v>
+        <v>7412</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-26.6645</v>
+        <v>85.2921</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>178.4469</v>
+        <v>208.8373</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="H193" t="n">
-        <v>7339</v>
+        <v>7401</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-60.9935</v>
+        <v>15.8292</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>154.3228</v>
+        <v>178.4469</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="H194" t="n">
-        <v>7346</v>
+        <v>7339</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-33.5388</v>
+        <v>-26.6645</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>10.4987</v>
+        <v>154.3228</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="H195" t="n">
-        <v>7381</v>
+        <v>7346</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-67.4748</v>
+        <v>-60.9935</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-133.4144</v>
+        <v>10.4987</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="H196" t="n">
-        <v>7335</v>
+        <v>7381</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-36.5661</v>
+        <v>-33.5388</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-93.6384</v>
+        <v>-133.4144</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="H197" t="n">
-        <v>7333</v>
+        <v>7335</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-66.9756</v>
+        <v>-67.4748</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/01/23</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-148.463</v>
+        <v>-93.6384</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/01/23</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>7359</v>
+        <v>7333</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-48.2141</v>
+        <v>-36.5661</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/01/22</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-136.0784</v>
+        <v>-148.463</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/01/22</t>
         </is>
       </c>
       <c r="H199" t="n">
-        <v>7400</v>
+        <v>7359</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-40.0847</v>
+        <v>-66.9756</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/01/21</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-185.0347</v>
+        <v>-136.0784</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/01/21</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>7469</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025/02/17</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-61.3333</v>
+        <v>-48.2141</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2025/01/16</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-232.9042</v>
+        <v>-185.0347</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2025/01/16</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>7467</v>
+        <v>7469</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-33.5196</v>
+        <v>-40.0847</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2025/01/15</t>
+          <t>2025/01/16</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-341.6063</v>
+        <v>-232.9042</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>2025/01/15</t>
+          <t>2025/01/16</t>
         </is>
       </c>
       <c r="H202" t="n">
-        <v>7442</v>
+        <v>7467</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/17</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-62.8716</v>
+        <v>-61.3333</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2025/01/14</t>
+          <t>2025/01/15</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-197.7723</v>
+        <v>-341.6063</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2025/01/14</t>
+          <t>2025/01/15</t>
         </is>
       </c>
       <c r="H203" t="n">
-        <v>7425</v>
+        <v>7442</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>25.251</v>
+        <v>-33.5196</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2025/01/13</t>
+          <t>2025/01/14</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-232.2524</v>
+        <v>-197.7723</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2025/01/13</t>
+          <t>2025/01/14</t>
         </is>
       </c>
       <c r="H204" t="n">
-        <v>7434</v>
+        <v>7425</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-32.3037</v>
+        <v>-62.8716</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/13</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-222.7189</v>
+        <v>-232.2524</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/13</t>
         </is>
       </c>
       <c r="H205" t="n">
-        <v>7362</v>
+        <v>7434</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-33.7955</v>
+        <v>25.251</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2025/01/09</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-49.8344</v>
+        <v>-222.7189</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>2025/01/09</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="H206" t="n">
-        <v>7343</v>
+        <v>7362</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-6.7403</v>
+        <v>-32.3037</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2025/01/08</t>
+          <t>2025/01/09</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-10.4749</v>
+        <v>-49.8344</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2025/01/08</t>
+          <t>2025/01/09</t>
         </is>
       </c>
       <c r="H207" t="n">
-        <v>7310</v>
+        <v>7343</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-63.469</v>
+        <v>-33.7955</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2025/01/07</t>
+          <t>2025/01/08</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-72.9455</v>
+        <v>-10.4749</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2025/01/07</t>
+          <t>2025/01/08</t>
         </is>
       </c>
       <c r="H208" t="n">
-        <v>7323</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-57.3528</v>
+        <v>-6.7403</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2025/01/07</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>31.4761</v>
+        <v>-72.9455</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2025/01/07</t>
         </is>
       </c>
       <c r="H209" t="n">
-        <v>7354</v>
+        <v>7323</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025/02/04</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-79.0872</v>
+        <v>-63.469</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/06</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>77.5288</v>
+        <v>31.4761</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/06</t>
         </is>
       </c>
       <c r="H210" t="n">
-        <v>7432</v>
+        <v>7354</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025/02/03</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-59.0256</v>
+        <v>-57.3528</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>2025/01/02</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>196.6199</v>
+        <v>77.5288</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2025/01/02</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="H211" t="n">
-        <v>7495</v>
+        <v>7432</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025/01/31</t>
+          <t>2025/02/04</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>-45.881</v>
+        <v>-79.0872</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>259.5191</v>
+        <v>196.6199</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="H212" t="n">
-        <v>7477</v>
+        <v>7495</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025/01/30</t>
+          <t>2025/02/03</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-93.8385</v>
+        <v>-59.0256</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>2024/12/30</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>207.6401</v>
+        <v>259.5191</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>2024/12/30</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="H213" t="n">
-        <v>7393</v>
+        <v>7477</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025/01/29</t>
+          <t>2025/01/31</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-97.4344</v>
+        <v>-45.881</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>213.1494</v>
+        <v>207.6401</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="H214" t="n">
-        <v>7370</v>
+        <v>7393</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025/01/28</t>
+          <t>2025/01/30</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-100.9946</v>
+        <v>-93.8385</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2024/12/26</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>302.3201</v>
+        <v>213.1494</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>2024/12/26</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="H215" t="n">
-        <v>7407</v>
+        <v>7370</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/01/29</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-105.5783</v>
+        <v>-97.4344</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>298.3814</v>
+        <v>302.3201</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="H216" t="n">
-        <v>7428</v>
+        <v>7407</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/01/28</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-176.3292</v>
+        <v>-100.9946</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>340.8542</v>
+        <v>298.3814</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="H217" t="n">
-        <v>7419</v>
+        <v>7428</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-152.1612</v>
+        <v>-105.5783</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>277.6616</v>
+        <v>340.8542</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="H218" t="n">
-        <v>7359</v>
+        <v>7419</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-151.8703</v>
+        <v>-176.3292</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>346.0539</v>
+        <v>277.6616</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="H219" t="n">
-        <v>7406</v>
+        <v>7359</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/01/23</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-116.0738</v>
+        <v>-152.1612</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>335.8454</v>
+        <v>346.0539</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="H220" t="n">
-        <v>7417</v>
+        <v>7406</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025/01/20</t>
+          <t>2025/01/22</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-48.0968</v>
+        <v>-151.8703</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>334.5792</v>
+        <v>335.8454</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="H221" t="n">
-        <v>7441</v>
+        <v>7417</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/01/21</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-92.8434</v>
+        <v>-116.0738</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>317.6841</v>
+        <v>334.5792</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="H222" t="n">
-        <v>7467</v>
+        <v>7441</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025/01/16</t>
+          <t>2025/01/20</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-114.3745</v>
+        <v>-48.0968</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>281.6444</v>
+        <v>317.6841</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="H223" t="n">
-        <v>7463</v>
+        <v>7467</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025/01/15</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-162.1081</v>
+        <v>-92.8434</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>380.8711</v>
+        <v>281.6444</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="H224" t="n">
-        <v>7491</v>
+        <v>7463</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025/01/14</t>
+          <t>2025/01/16</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-128.9929</v>
+        <v>-114.3745</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>330.7552</v>
+        <v>380.8711</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="H225" t="n">
-        <v>7457</v>
+        <v>7491</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025/01/13</t>
+          <t>2025/01/15</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-71.28870000000001</v>
+        <v>-162.1081</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>426.3342</v>
+        <v>330.7552</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="H226" t="n">
-        <v>7440</v>
+        <v>7457</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/14</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-169.5474</v>
+        <v>-128.9929</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>425.1924</v>
+        <v>426.3342</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="H227" t="n">
-        <v>7425</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025/01/09</t>
+          <t>2025/01/13</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-107.8694</v>
+        <v>-71.28870000000001</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>482.7086</v>
+        <v>425.1924</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="H228" t="n">
-        <v>7418</v>
+        <v>7425</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025/01/08</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-115.8215</v>
+        <v>-169.5474</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>431.5334</v>
+        <v>482.7086</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="H229" t="n">
-        <v>7452</v>
+        <v>7418</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025/01/07</t>
+          <t>2025/01/09</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>-124.6398</v>
+        <v>-107.8694</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/05</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>458.8155</v>
+        <v>431.5334</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/05</t>
         </is>
       </c>
       <c r="H230" t="n">
-        <v>7508</v>
+        <v>7452</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2025/01/08</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>-68.5052</v>
+        <v>-115.8215</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/04</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>397.8384</v>
+        <v>458.8155</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/04</t>
         </is>
       </c>
       <c r="H231" t="n">
-        <v>7540</v>
+        <v>7508</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/07</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>8.763299999999999</v>
+        <v>-124.6398</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/03</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>553.3656999999999</v>
+        <v>397.8384</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/03</t>
         </is>
       </c>
       <c r="H232" t="n">
-        <v>7555</v>
+        <v>7540</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025/01/02</t>
+          <t>2025/01/06</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>81.5184</v>
+        <v>-68.5052</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/02</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>464.7785</v>
+        <v>553.3656999999999</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/02</t>
         </is>
       </c>
       <c r="H233" t="n">
-        <v>7542</v>
+        <v>7555</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>83.4491</v>
+        <v>8.763299999999999</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>437.9908</v>
+        <v>464.7785</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="H234" t="n">
-        <v>7525</v>
+        <v>7542</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2024/12/30</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>-4.5232</v>
+        <v>81.5184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>453.6465</v>
+        <v>437.9908</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="H235" t="n">
-        <v>7532</v>
+        <v>7525</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-41.448</v>
+        <v>83.4491</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>427.7022</v>
+        <v>453.6465</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="H236" t="n">
-        <v>7520</v>
+        <v>7532</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2024/12/26</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>17.4824</v>
+        <v>-4.5232</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>257.5274</v>
+        <v>427.7022</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="H237" t="n">
-        <v>7513</v>
+        <v>7520</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>39.3943</v>
+        <v>-41.448</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>329.4921</v>
+        <v>257.5274</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="H238" t="n">
-        <v>7517</v>
+        <v>7513</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>51.6267</v>
+        <v>17.4824</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>434.3544</v>
+        <v>329.4921</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="H239" t="n">
-        <v>7528</v>
+        <v>7517</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>-10.1026</v>
+        <v>39.3943</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>383.4679</v>
+        <v>434.3544</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="H240" t="n">
-        <v>7490</v>
+        <v>7528</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>41.2185</v>
+        <v>51.6267</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>341.6166</v>
+        <v>383.4679</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="H241" t="n">
-        <v>7436</v>
+        <v>7490</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>41.7404</v>
+        <v>-10.1026</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>466.5955</v>
+        <v>341.6166</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="H242" t="n">
-        <v>7413</v>
+        <v>7436</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>58.5209</v>
+        <v>41.2185</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>386.9584</v>
+        <v>466.5955</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="H243" t="n">
-        <v>7432</v>
+        <v>7413</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>82.10890000000001</v>
+        <v>41.7404</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>422.1249</v>
+        <v>386.9584</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="H244" t="n">
-        <v>7441</v>
+        <v>7432</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>67.5301</v>
+        <v>58.5209</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>444.8795</v>
+        <v>422.1249</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="H245" t="n">
@@ -9163,1431 +9163,1431 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>114.08</v>
+        <v>82.10890000000001</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>441.7484</v>
+        <v>444.8795</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="H246" t="n">
-        <v>7435</v>
+        <v>7441</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>82.0108</v>
+        <v>67.5301</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>349.3903</v>
+        <v>441.7484</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="H247" t="n">
-        <v>7462</v>
+        <v>7435</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>84.43000000000001</v>
+        <v>114.08</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>245.2294</v>
+        <v>349.3903</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="H248" t="n">
-        <v>7499</v>
+        <v>7462</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>68.16800000000001</v>
+        <v>82.0108</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>257.6536</v>
+        <v>245.2294</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="H249" t="n">
-        <v>7427</v>
+        <v>7499</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>77.3972</v>
+        <v>84.43000000000001</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>273.0316</v>
+        <v>257.6536</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="H250" t="n">
-        <v>7472</v>
+        <v>7427</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>88.6537</v>
+        <v>68.16800000000001</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>264.6308</v>
+        <v>273.0316</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="H251" t="n">
-        <v>7454</v>
+        <v>7472</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>129.5927</v>
+        <v>77.3972</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>436.4836</v>
+        <v>264.6308</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="H252" t="n">
-        <v>7455</v>
+        <v>7454</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/05</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>129.0963</v>
+        <v>88.6537</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>405.5338</v>
+        <v>436.4836</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="H253" t="n">
-        <v>7450</v>
+        <v>7455</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/04</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>196.829</v>
+        <v>129.5927</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>365.7017</v>
+        <v>405.5338</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="H254" t="n">
-        <v>7411</v>
+        <v>7450</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/03</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>107.2663</v>
+        <v>129.0963</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>532.1907</v>
+        <v>365.7017</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="H255" t="n">
-        <v>7451</v>
+        <v>7411</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2024/12/02</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>93.1581</v>
+        <v>196.829</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>556.6682</v>
+        <v>532.1907</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="H256" t="n">
-        <v>7525</v>
+        <v>7451</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>110.719</v>
+        <v>107.2663</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>263.6624</v>
+        <v>556.6682</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="H257" t="n">
-        <v>7495</v>
+        <v>7525</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>135.6419</v>
+        <v>93.1581</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>355.2515</v>
+        <v>263.6624</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="H258" t="n">
-        <v>7503</v>
+        <v>7495</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>115.5506</v>
+        <v>110.719</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>281.1408</v>
+        <v>355.2515</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="H259" t="n">
-        <v>7471</v>
+        <v>7503</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>47.8028</v>
+        <v>135.6419</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>233.777</v>
+        <v>281.1408</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="H260" t="n">
-        <v>7457</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>68.554</v>
+        <v>115.5506</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>352.109</v>
+        <v>233.777</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="H261" t="n">
-        <v>7441</v>
+        <v>7457</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>120.2518</v>
+        <v>47.8028</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>468.6293</v>
+        <v>352.109</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="H262" t="n">
-        <v>7515</v>
+        <v>7441</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>80.09569999999999</v>
+        <v>68.554</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>323.4406</v>
+        <v>468.6293</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="H263" t="n">
-        <v>7460</v>
+        <v>7515</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>29.465</v>
+        <v>120.2518</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>398.5124</v>
+        <v>323.4406</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="H264" t="n">
-        <v>7532</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>50.5536</v>
+        <v>80.09569999999999</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>427.0674</v>
+        <v>398.5124</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="H265" t="n">
-        <v>7546</v>
+        <v>7532</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>52.3704</v>
+        <v>29.465</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>493.4499</v>
+        <v>427.0674</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="H266" t="n">
-        <v>7643</v>
+        <v>7546</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>59.2475</v>
+        <v>50.5536</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>249.9608</v>
+        <v>493.4499</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="H267" t="n">
-        <v>7662</v>
+        <v>7643</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>78.5879</v>
+        <v>52.3704</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>179.9249</v>
+        <v>249.9608</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="H268" t="n">
-        <v>7630</v>
+        <v>7662</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>84.2362</v>
+        <v>59.2475</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>404.1446</v>
+        <v>179.9249</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="H269" t="n">
-        <v>7655</v>
+        <v>7630</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>103.0846</v>
+        <v>78.5879</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>407.9923</v>
+        <v>404.1446</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="H270" t="n">
-        <v>7720</v>
+        <v>7655</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>84.76730000000001</v>
+        <v>84.2362</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>744.4545000000001</v>
+        <v>407.9923</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="H271" t="n">
-        <v>7594</v>
+        <v>7720</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>83.04689999999999</v>
+        <v>103.0846</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>533.6126</v>
+        <v>744.4545000000001</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="H272" t="n">
-        <v>7435</v>
+        <v>7594</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>103.3023</v>
+        <v>84.76730000000001</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>521.2387</v>
+        <v>533.6126</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="H273" t="n">
-        <v>7368</v>
+        <v>7435</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>79.7814</v>
+        <v>83.04689999999999</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>356.6024</v>
+        <v>521.2387</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="H274" t="n">
-        <v>7354</v>
+        <v>7368</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>136.5257</v>
+        <v>103.3023</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>232.1451</v>
+        <v>356.6024</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="H275" t="n">
-        <v>7360</v>
+        <v>7354</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>164.1056</v>
+        <v>79.7814</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>161.458</v>
+        <v>232.1451</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="H276" t="n">
-        <v>7233</v>
+        <v>7360</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>53.0623</v>
+        <v>136.5257</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>2024/09/20</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>194.0253</v>
+        <v>161.458</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>2024/09/20</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="H277" t="n">
-        <v>7303</v>
+        <v>7233</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>142.4872</v>
+        <v>164.1056</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>2024/09/19</t>
+          <t>2024/09/20</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>183.4455</v>
+        <v>194.0253</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>2024/09/19</t>
+          <t>2024/09/20</t>
         </is>
       </c>
       <c r="H278" t="n">
-        <v>7333</v>
+        <v>7303</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>192.3276</v>
+        <v>53.0623</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>2024/09/18</t>
+          <t>2024/09/19</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>279.6523</v>
+        <v>183.4455</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>2024/09/18</t>
+          <t>2024/09/19</t>
         </is>
       </c>
       <c r="H279" t="n">
-        <v>7267</v>
+        <v>7333</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>78.813</v>
+        <v>142.4872</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/18</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>309.3014</v>
+        <v>279.6523</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/18</t>
         </is>
       </c>
       <c r="H280" t="n">
-        <v>7264</v>
+        <v>7267</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>104.0684</v>
+        <v>192.3276</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>352.2262</v>
+        <v>309.3014</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="H281" t="n">
-        <v>7325</v>
+        <v>7264</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>65.07550000000001</v>
+        <v>78.813</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>432.2612</v>
+        <v>352.2262</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="H282" t="n">
-        <v>7292</v>
+        <v>7325</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>30.3931</v>
+        <v>104.0684</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>492.6762</v>
+        <v>432.2612</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="H283" t="n">
-        <v>7275</v>
+        <v>7292</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>74.0997</v>
+        <v>65.07550000000001</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>387.2227</v>
+        <v>492.6762</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="H284" t="n">
-        <v>7319</v>
+        <v>7275</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>144.7717</v>
+        <v>30.3931</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>446.3086</v>
+        <v>387.2227</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="H285" t="n">
-        <v>7341</v>
+        <v>7319</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>93.2306</v>
+        <v>74.0997</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>340.8746</v>
+        <v>446.3086</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="H286" t="n">
-        <v>7342</v>
+        <v>7341</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>165.8637</v>
+        <v>144.7717</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>380.1609</v>
+        <v>340.8746</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="H287" t="n">
-        <v>7388</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>210.5143</v>
+        <v>93.2306</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>435.2662</v>
+        <v>380.1609</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="H288" t="n">
-        <v>7509</v>
+        <v>7388</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>316.8922</v>
+        <v>165.8637</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>2024/08/30</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>180.3095</v>
+        <v>435.2662</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2024/08/30</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="H289" t="n">
-        <v>7628</v>
+        <v>7509</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>250.4555</v>
+        <v>210.5143</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/08/30</t>
         </is>
       </c>
       <c r="E290" t="n">
-        <v>75.82470000000001</v>
+        <v>180.3095</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/08/30</t>
         </is>
       </c>
       <c r="H290" t="n">
-        <v>7622</v>
+        <v>7628</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>185.2971</v>
+        <v>316.8922</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>2024/08/28</t>
+          <t>2024/08/29</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>200.8377</v>
+        <v>75.82470000000001</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>2024/08/28</t>
+          <t>2024/08/29</t>
         </is>
       </c>
       <c r="H291" t="n">
-        <v>7630</v>
+        <v>7622</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>300.749</v>
+        <v>250.4555</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>2024/08/27</t>
+          <t>2024/08/28</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>113.2007</v>
+        <v>200.8377</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>2024/08/27</t>
+          <t>2024/08/28</t>
         </is>
       </c>
       <c r="H292" t="n">
-        <v>7647</v>
+        <v>7630</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>330.9351</v>
+        <v>185.2971</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>2024/08/26</t>
+          <t>2024/08/27</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-25.3855</v>
+        <v>113.2007</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>2024/08/26</t>
+          <t>2024/08/27</t>
         </is>
       </c>
       <c r="H293" t="n">
-        <v>7605</v>
+        <v>7647</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>227.2544</v>
+        <v>300.749</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>2024/08/23</t>
+          <t>2024/08/26</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.7056</v>
+        <v>-25.3855</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>2024/08/23</t>
+          <t>2024/08/26</t>
         </is>
       </c>
       <c r="H294" t="n">
-        <v>7506</v>
+        <v>7605</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>306.8642</v>
+        <v>330.9351</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>197.6992</v>
+        <v>23.7056</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="H295" t="n">
-        <v>7529</v>
+        <v>7506</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>217.1407</v>
+        <v>227.2544</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>2024/08/21</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>300.3682</v>
+        <v>197.6992</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>2024/08/21</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="H296" t="n">
-        <v>7562</v>
+        <v>7529</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/10/04</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>317.4727</v>
+        <v>306.8642</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>169.9417</v>
+        <v>300.3682</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="H297" t="n">
-        <v>7513</v>
+        <v>7562</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/03</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>318.9698</v>
+        <v>217.1407</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>121.5721</v>
+        <v>169.9417</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="H298" t="n">
-        <v>7514</v>
+        <v>7513</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/02</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>393.7708</v>
+        <v>317.4727</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-43.4959</v>
+        <v>121.5721</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="H299" t="n">
-        <v>7489</v>
+        <v>7514</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/10/01</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>200.0001</v>
+        <v>318.9698</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>2024/08/16</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-95.9627</v>
+        <v>-43.4959</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>2024/08/16</t>
         </is>
       </c>
       <c r="H300" t="n">
-        <v>7533</v>
+        <v>7489</v>
       </c>
     </row>
   </sheetData>
